--- a/2.1-402/shopping.xlsx
+++ b/2.1-402/shopping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="12780" windowHeight="6075" activeTab="8"/>
@@ -1786,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -2492,7 +2492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/2.1-402/shopping.xlsx
+++ b/2.1-402/shopping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="12780" windowHeight="6075" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="12780" windowHeight="6045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卫生间" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
     <sheet name="卫生间 (HEGLL)比较" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="151">
   <si>
     <t>卫生间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,30 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卫生间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入户花园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生间墙面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房墙面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>防盗门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,10 +177,6 @@
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踢脚线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -486,14 +454,182 @@
   </si>
   <si>
     <t>HGM5163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补/退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60*60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80*80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房墙面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间墙面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40*40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">拨打线 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S880302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80*80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厅角线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房角线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填缝剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.3*80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12*80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补退金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补过到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补厨房门边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补11退4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送210退8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买3送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一片未送货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折后价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YG802013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YG602013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周建雄:13903033644</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63720(换为N63935)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -596,39 +732,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -639,7 +742,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,21 +773,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -703,6 +791,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -710,11 +804,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -788,6 +887,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -822,6 +922,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -997,14 +1098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="36.375" customWidth="1"/>
@@ -1014,17 +1115,17 @@
     <col min="6" max="6" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1034,7 +1135,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="30.75" customHeight="1">
+    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1044,8 +1145,8 @@
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="30.75" customHeight="1"/>
-    <row r="5" spans="1:6" ht="24.75" customHeight="1">
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1065,7 +1166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.75" customHeight="1">
+    <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1077,9 +1178,9 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="24.75" customHeight="1">
+    <row r="7" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1088,9 +1189,9 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="24.75" customHeight="1">
+    <row r="8" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1100,7 +1201,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="24.75" customHeight="1">
+    <row r="9" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1112,7 +1213,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="24.75" customHeight="1">
+    <row r="10" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1225,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="24.75" customHeight="1">
+    <row r="11" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1237,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="24.75" customHeight="1">
+    <row r="12" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1249,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="24.75" customHeight="1">
+    <row r="13" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,7 +1261,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="24.75" customHeight="1">
+    <row r="14" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1172,7 +1273,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="24.75" customHeight="1">
+    <row r="15" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,9 +1285,9 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="24.75" customHeight="1">
+    <row r="16" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1196,9 +1297,9 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="24.75" customHeight="1">
+    <row r="17" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1206,7 +1307,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="24.75" customHeight="1">
+    <row r="18" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1216,7 +1317,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="24.75" customHeight="1">
+    <row r="19" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1226,7 +1327,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="24.75" customHeight="1">
+    <row r="20" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1236,7 +1337,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="24.75" customHeight="1">
+    <row r="21" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1244,7 +1345,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="24.75" customHeight="1">
+    <row r="22" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1265,55 +1366,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37.5" customHeight="1">
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24.75" customHeight="1">
+    <row r="2" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="5" spans="1:10" ht="24.75" customHeight="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1336,176 +1463,444 @@
         <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.75" customHeight="1">
+        <v>138</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="24.75" customHeight="1">
+      <c r="C6" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="1">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="J6" s="1">
+        <f>G6*I6</f>
+        <v>3910.2</v>
+      </c>
+      <c r="K6" s="1">
+        <f>H6*I6</f>
+        <v>399</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>42</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="24.75" customHeight="1">
+      <c r="C7" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="1">
+        <v>120</v>
+      </c>
+      <c r="H7" s="1">
+        <f>11-4</f>
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" ref="J7:J16" si="0">G7*I7</f>
+        <v>4656</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7:K16" si="1">H7*I7</f>
+        <v>271.59999999999997</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B8" s="1">
         <v>20</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="24.75" customHeight="1">
+      <c r="C8" s="16">
+        <v>45306</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="1">
+        <v>155</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>1519</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="24.75" customHeight="1">
+      <c r="C9" s="16">
+        <v>348000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="1">
+        <v>58</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="24.75" customHeight="1">
+      <c r="C10" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="1">
+        <v>200</v>
+      </c>
+      <c r="H10" s="1">
+        <f>10-8</f>
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>2760</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>27.6</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="16">
+        <v>30513</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="1">
+        <v>78</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>663</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="16">
+        <v>4237</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="1">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>455.59999999999997</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="1">
         <v>33</v>
       </c>
-      <c r="B11" s="1">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="24.75" customHeight="1">
+      <c r="C13" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>88</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>-88</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="24.75" customHeight="1">
+      <c r="D14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="1">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A16" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="1">
+        <v>86</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="24.75" customHeight="1">
+      <c r="E16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1516,9 +1911,14 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A18" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1526,8 +1926,60 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="11">
+        <f>SUM(J6:J17)</f>
+        <v>15234.800000000001</v>
+      </c>
+      <c r="K18" s="11">
+        <f>SUM(K6:K16)</f>
+        <v>783.19999999999993</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-4600</v>
+      </c>
+      <c r="J19" s="1">
+        <v>14600</v>
+      </c>
+      <c r="K19" s="1">
+        <v>783.2</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <f>J19/J18</f>
+        <v>0.95833223934675871</v>
+      </c>
+      <c r="K20" s="1">
+        <f>K19+J19+I19</f>
+        <v>10783.2</v>
+      </c>
+      <c r="L20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1537,25 +1989,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.75" customHeight="1">
+    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A3" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="8"/>
@@ -1564,8 +2016,8 @@
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="8"/>
@@ -1581,14 +2033,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
@@ -1596,12 +2048,12 @@
     <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.75" customHeight="1">
+    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.75" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +2063,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="24.75" customHeight="1">
+    <row r="4" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +2073,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="24.75" customHeight="1">
+    <row r="5" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1629,12 +2081,12 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="24.75" customHeight="1">
+    <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -1649,9 +2101,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.75" customHeight="1">
+    <row r="7" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1661,9 +2113,9 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="24.75" customHeight="1">
+    <row r="8" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1673,7 +2125,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="24.75" customHeight="1">
+    <row r="9" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -1685,9 +2137,9 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="24.75" customHeight="1">
+    <row r="10" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1697,9 +2149,9 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="24.75" customHeight="1">
+    <row r="11" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1709,9 +2161,9 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="24.75" customHeight="1">
+    <row r="12" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1719,7 +2171,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="24.75" customHeight="1">
+    <row r="13" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1727,7 +2179,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="24.75" customHeight="1">
+    <row r="14" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1735,7 +2187,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="24.75" customHeight="1">
+    <row r="15" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1753,14 +2205,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1768,14 +2220,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1783,14 +2235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="36.375" customWidth="1"/>
@@ -1800,29 +2252,29 @@
     <col min="6" max="6" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>62</v>
+      <c r="B2" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="30.75" customHeight="1">
+    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1832,8 +2284,8 @@
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="30.75" customHeight="1"/>
-    <row r="5" spans="1:6" ht="24.75" customHeight="1">
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1853,7 +2305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.75" customHeight="1">
+    <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1865,12 +2317,12 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="24.75" customHeight="1">
+    <row r="7" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -1881,9 +2333,9 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="24.75" customHeight="1">
+    <row r="8" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1893,15 +2345,15 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="24.75" customHeight="1">
+    <row r="9" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -1909,12 +2361,12 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="24.75" customHeight="1">
+    <row r="10" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1">
         <v>799</v>
@@ -1925,12 +2377,12 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="24.75" customHeight="1">
+    <row r="11" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -1941,12 +2393,12 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="24.75" customHeight="1">
+    <row r="12" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -1957,7 +2409,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="24.75" customHeight="1">
+    <row r="13" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1971,12 +2423,12 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="24.75" customHeight="1">
+    <row r="14" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -1987,12 +2439,12 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="24.75" customHeight="1">
+    <row r="15" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -2003,12 +2455,12 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="24.75" customHeight="1">
+    <row r="16" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -2019,9 +2471,9 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="24.75" customHeight="1">
+    <row r="17" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2029,7 +2481,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="24.75" customHeight="1">
+    <row r="18" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2039,7 +2491,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="24.75" customHeight="1">
+    <row r="19" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2049,7 +2501,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="24.75" customHeight="1">
+    <row r="20" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -2059,7 +2511,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="24.75" customHeight="1">
+    <row r="21" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2067,7 +2519,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="24.75" customHeight="1">
+    <row r="22" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -2088,14 +2540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
@@ -2107,7 +2559,7 @@
     <col min="11" max="11" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2124,7 +2576,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2141,7 +2593,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2158,7 +2610,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2173,15 +2625,15 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
@@ -2189,11 +2641,11 @@
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>67</v>
+      <c r="F5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
@@ -2210,23 +2662,23 @@
       <c r="L5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2239,19 +2691,19 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2264,19 +2716,19 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
         <v>45528</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2289,7 +2741,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>0</v>
@@ -2298,10 +2750,10 @@
         <v>75758</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2314,17 +2766,17 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2337,19 +2789,19 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1">
         <v>75738</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2362,17 +2814,17 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2385,19 +2837,19 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2410,19 +2862,19 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2435,19 +2887,19 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2460,15 +2912,15 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2489,14 +2941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="36.375" customWidth="1"/>
@@ -2507,23 +2959,23 @@
     <col min="7" max="7" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>62</v>
+      <c r="B2" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2531,12 +2983,12 @@
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="30.75" customHeight="1">
+    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>91</v>
+      <c r="B3" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2544,8 +2996,8 @@
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="30.75" customHeight="1"/>
-    <row r="5" spans="1:7" ht="24.75" customHeight="1">
+    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2553,13 +3005,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
@@ -2568,12 +3020,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24.75" customHeight="1">
+    <row r="6" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1">
         <v>3390</v>
@@ -2592,12 +3044,12 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24.75" customHeight="1">
+    <row r="7" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1">
         <v>3960</v>
@@ -2616,12 +3068,12 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24.75" customHeight="1">
+    <row r="8" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -2638,12 +3090,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24.75" customHeight="1">
+    <row r="9" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1">
         <v>2200</v>
@@ -2662,12 +3114,12 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24.75" customHeight="1">
+    <row r="10" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1">
         <v>2600</v>
@@ -2686,12 +3138,12 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24.75" customHeight="1">
+    <row r="11" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1">
         <v>260</v>
@@ -2710,12 +3162,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.75" customHeight="1">
+    <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -2732,19 +3184,19 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24.75" customHeight="1">
+    <row r="13" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -2754,12 +3206,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24.75" customHeight="1">
+    <row r="14" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1">
         <v>698</v>
@@ -2778,9 +3230,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24.75" customHeight="1">
+    <row r="15" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
@@ -2798,12 +3250,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24.75" customHeight="1">
+    <row r="16" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -2820,10 +3272,10 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="24.75" customHeight="1">
+    <row r="17" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
@@ -2840,10 +3292,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24.75" customHeight="1">
+    <row r="18" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -2860,10 +3312,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="24.75" customHeight="1">
+    <row r="19" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
@@ -2880,12 +3332,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="24.75" customHeight="1">
+    <row r="20" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C20" s="1">
         <v>20</v>
@@ -2902,27 +3354,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="24.75" customHeight="1">
+    <row r="21" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="24.75" customHeight="1">
+    <row r="22" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2932,13 +3384,13 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="24.75" customHeight="1">
+    <row r="23" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="19">
+      <c r="D23" s="14">
         <v>8558</v>
       </c>
       <c r="E23" s="1"/>
